--- a/data/independent_variables_describe.xlsx
+++ b/data/independent_variables_describe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>log_ret</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>inter_put_money</t>
+  </si>
+  <si>
+    <t>inter_call_skewness</t>
   </si>
   <si>
     <t>count</t>
@@ -443,13 +446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,10 +501,13 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>1629</v>
@@ -551,10 +557,13 @@
       <c r="Q2">
         <v>1629</v>
       </c>
+      <c r="R2">
+        <v>1629</v>
+      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>-0.004823203186454048</v>
@@ -604,10 +613,13 @@
       <c r="Q3">
         <v>0.4125383953027635</v>
       </c>
+      <c r="R3">
+        <v>-0.2829303352525225</v>
+      </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>0.0501191758666485</v>
@@ -657,10 +669,13 @@
       <c r="Q4">
         <v>0.6459877410383507</v>
       </c>
+      <c r="R4">
+        <v>0.6889522041091093</v>
+      </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>-0.1845817394399543</v>
@@ -710,10 +725,13 @@
       <c r="Q5">
         <v>0</v>
       </c>
+      <c r="R5">
+        <v>-4.49708153823858</v>
+      </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>-0.029620918352256</v>
@@ -763,10 +781,13 @@
       <c r="Q6">
         <v>0</v>
       </c>
+      <c r="R6">
+        <v>-0.4674627902532789</v>
+      </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>-0.0007060618772793958</v>
@@ -816,10 +837,13 @@
       <c r="Q7">
         <v>0</v>
       </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>0.0238202319429579</v>
@@ -869,10 +893,13 @@
       <c r="Q8">
         <v>0.9916783333333333</v>
       </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>0.2251189979873125</v>
@@ -921,6 +948,9 @@
       </c>
       <c r="Q9">
         <v>3.5054</v>
+      </c>
+      <c r="R9">
+        <v>2.184039933972693</v>
       </c>
     </row>
   </sheetData>

--- a/data/independent_variables_describe.xlsx
+++ b/data/independent_variables_describe.xlsx
@@ -510,55 +510,55 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>1629</v>
+        <v>1039</v>
       </c>
       <c r="C2">
-        <v>1629</v>
+        <v>1039</v>
       </c>
       <c r="D2">
-        <v>1629</v>
+        <v>1039</v>
       </c>
       <c r="E2">
-        <v>1629</v>
+        <v>1039</v>
       </c>
       <c r="F2">
-        <v>1629</v>
+        <v>1039</v>
       </c>
       <c r="G2">
-        <v>1629</v>
+        <v>1039</v>
       </c>
       <c r="H2">
-        <v>1629</v>
+        <v>1039</v>
       </c>
       <c r="I2">
-        <v>1629</v>
+        <v>1039</v>
       </c>
       <c r="J2">
-        <v>1629</v>
+        <v>1039</v>
       </c>
       <c r="K2">
-        <v>1629</v>
+        <v>1039</v>
       </c>
       <c r="L2">
-        <v>1629</v>
+        <v>1039</v>
       </c>
       <c r="M2">
-        <v>1629</v>
+        <v>1039</v>
       </c>
       <c r="N2">
-        <v>1629</v>
+        <v>1039</v>
       </c>
       <c r="O2">
-        <v>1629</v>
+        <v>1039</v>
       </c>
       <c r="P2">
-        <v>1629</v>
+        <v>1039</v>
       </c>
       <c r="Q2">
-        <v>1629</v>
+        <v>1039</v>
       </c>
       <c r="R2">
-        <v>1629</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -566,55 +566,55 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>-0.004823203186454048</v>
+        <v>-0.00339664078175722</v>
       </c>
       <c r="C3">
-        <v>0.04399424128160118</v>
+        <v>0.04354144994369263</v>
       </c>
       <c r="D3">
-        <v>-0.3644776680008223</v>
+        <v>-0.359048483921204</v>
       </c>
       <c r="E3">
-        <v>0.04449362169550829</v>
+        <v>0.04425089999844053</v>
       </c>
       <c r="F3">
-        <v>1.042177157104011</v>
+        <v>1.040054342029444</v>
       </c>
       <c r="G3">
-        <v>6568178843.567219</v>
+        <v>22.49526534507945</v>
       </c>
       <c r="H3">
-        <v>3.839798259537994</v>
+        <v>4.12674326073865</v>
       </c>
       <c r="I3">
-        <v>0.1300052630950272</v>
+        <v>0.1281078068422207</v>
       </c>
       <c r="J3">
-        <v>0.01336958471487881</v>
+        <v>0.01069096452830773</v>
       </c>
       <c r="K3">
-        <v>274.7707182320442</v>
+        <v>276.3238691049086</v>
       </c>
       <c r="L3">
-        <v>83.31921424186618</v>
+        <v>93.11645813282001</v>
       </c>
       <c r="M3">
-        <v>-0.3000496032373797</v>
+        <v>-0.1898066858226822</v>
       </c>
       <c r="N3">
-        <v>17.59729895641498</v>
+        <v>22.41193455245428</v>
       </c>
       <c r="O3">
-        <v>0.669122160834868</v>
+        <v>0.65832531280077</v>
       </c>
       <c r="P3">
-        <v>0.5231164853462548</v>
+        <v>0.5206018817416194</v>
       </c>
       <c r="Q3">
-        <v>0.4125383953027635</v>
+        <v>0.4401189688202236</v>
       </c>
       <c r="R3">
-        <v>-0.2829303352525225</v>
+        <v>-0.2577475584248373</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -622,55 +622,55 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.0501191758666485</v>
+        <v>0.05030509177594177</v>
       </c>
       <c r="C4">
-        <v>0.0182178933196002</v>
+        <v>0.01790413881001567</v>
       </c>
       <c r="D4">
-        <v>0.7690782229783255</v>
+        <v>0.7450812783299767</v>
       </c>
       <c r="E4">
-        <v>0.01981880803533692</v>
+        <v>0.01951598135555156</v>
       </c>
       <c r="F4">
-        <v>0.03622004633736775</v>
+        <v>0.03444282578890506</v>
       </c>
       <c r="G4">
-        <v>3579564293.89471</v>
+        <v>0.4142924039625561</v>
       </c>
       <c r="H4">
-        <v>1.545278402971554</v>
+        <v>1.121008284017033</v>
       </c>
       <c r="I4">
-        <v>0.3969862532218573</v>
+        <v>0.3816743331906603</v>
       </c>
       <c r="J4">
-        <v>0.03035623070768056</v>
+        <v>0.01551244869970163</v>
       </c>
       <c r="K4">
-        <v>373.5215626891857</v>
+        <v>354.8077483823925</v>
       </c>
       <c r="L4">
-        <v>164.5676824844449</v>
+        <v>178.6590894398217</v>
       </c>
       <c r="M4">
-        <v>2.492488874817967</v>
+        <v>1.0601138327174</v>
       </c>
       <c r="N4">
-        <v>43.13510735534773</v>
+        <v>49.85062167823674</v>
       </c>
       <c r="O4">
-        <v>0.4706736538032681</v>
+        <v>0.4744995193642926</v>
       </c>
       <c r="P4">
-        <v>0.4534030747402525</v>
+        <v>0.4261680922528208</v>
       </c>
       <c r="Q4">
-        <v>0.6459877410383507</v>
+        <v>0.6731456635638206</v>
       </c>
       <c r="R4">
-        <v>0.6889522041091093</v>
+        <v>0.6415657327998184</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -678,7 +678,7 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>-0.1845817394399543</v>
+        <v>-0.1739821464557565</v>
       </c>
       <c r="C5">
         <v>0.01117151506667381</v>
@@ -693,13 +693,13 @@
         <v>1.001297431106947</v>
       </c>
       <c r="G5">
-        <v>1710130048</v>
+        <v>21.30018254400138</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.079441541679836</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>-0.9999999988992182</v>
       </c>
       <c r="J5">
         <v>-0.05640989319730799</v>
@@ -711,10 +711,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>-31.62466568032501</v>
+        <v>-3.606630085184984</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -734,43 +734,43 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>-0.029620918352256</v>
+        <v>-0.02920259825102622</v>
       </c>
       <c r="C6">
-        <v>0.03064491037325778</v>
+        <v>0.02974898672957204</v>
       </c>
       <c r="D6">
-        <v>-0.6154108382743276</v>
+        <v>-0.6340638143572497</v>
       </c>
       <c r="E6">
-        <v>0.03083545787924123</v>
+        <v>0.03059576600234104</v>
       </c>
       <c r="F6">
-        <v>1.016082444215315</v>
+        <v>1.014495026390168</v>
       </c>
       <c r="G6">
-        <v>4272750080</v>
+        <v>22.17485485954608</v>
       </c>
       <c r="H6">
-        <v>3.044522437723423</v>
+        <v>3.218875824868201</v>
       </c>
       <c r="I6">
-        <v>-0.1086163964303481</v>
+        <v>-0.1257421141553462</v>
       </c>
       <c r="J6">
-        <v>0.002991763591251126</v>
+        <v>0.003910318364342398</v>
       </c>
       <c r="K6">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="L6">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M6">
-        <v>-0.7359336078782168</v>
+        <v>-0.4781342714886287</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>-0.4674627902532789</v>
+        <v>-0.4646384079264032</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -790,55 +790,55 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>-0.0007060618772793958</v>
+        <v>0.0007417396988067537</v>
       </c>
       <c r="C7">
-        <v>0.04251510296557554</v>
+        <v>0.04194005030377622</v>
       </c>
       <c r="D7">
-        <v>-0.227683830975827</v>
+        <v>-0.2572589074052842</v>
       </c>
       <c r="E7">
-        <v>0.04149210288035249</v>
+        <v>0.04069692605642719</v>
       </c>
       <c r="F7">
-        <v>1.031968675800555</v>
+        <v>1.031272041444893</v>
       </c>
       <c r="G7">
-        <v>5499700224</v>
+        <v>22.42795942297213</v>
       </c>
       <c r="H7">
-        <v>3.850147601710058</v>
+        <v>3.912023005428146</v>
       </c>
       <c r="I7">
-        <v>0.1136097830351892</v>
+        <v>0.1307085968404276</v>
       </c>
       <c r="J7">
-        <v>0.01264329248383629</v>
+        <v>0.01243425347567036</v>
       </c>
       <c r="K7">
-        <v>185</v>
+        <v>193.25</v>
       </c>
       <c r="L7">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M7">
-        <v>-0.7148181807173658</v>
+        <v>-0.4200843098728808</v>
       </c>
       <c r="N7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O7">
         <v>1</v>
       </c>
       <c r="P7">
-        <v>0.6113693333333334</v>
+        <v>0.632269</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -846,52 +846,52 @@
         <v>23</v>
       </c>
       <c r="B8">
-        <v>0.0238202319429579</v>
+        <v>0.02450169387505063</v>
       </c>
       <c r="C8">
-        <v>0.05513483722340078</v>
+        <v>0.05491935177624429</v>
       </c>
       <c r="D8">
-        <v>0.03823431223996049</v>
+        <v>0.03482644030419869</v>
       </c>
       <c r="E8">
-        <v>0.0615626498057595</v>
+        <v>0.05923223901989879</v>
       </c>
       <c r="F8">
-        <v>1.05263047466832</v>
+        <v>1.051490407099702</v>
       </c>
       <c r="G8">
-        <v>7317279744</v>
+        <v>22.70843515995384</v>
       </c>
       <c r="H8">
-        <v>5.153291594497779</v>
+        <v>5.156173446856155</v>
       </c>
       <c r="I8">
-        <v>0.4395342433234366</v>
+        <v>0.4282387386102008</v>
       </c>
       <c r="J8">
-        <v>0.02000573745750359</v>
+        <v>0.01849819644607618</v>
       </c>
       <c r="K8">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="L8">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="M8">
-        <v>0.49524515007388</v>
+        <v>0.4851721340471279</v>
       </c>
       <c r="N8">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
       <c r="P8">
-        <v>0.8965885714285714</v>
+        <v>0.8785813333333333</v>
       </c>
       <c r="Q8">
-        <v>0.9916783333333333</v>
+        <v>1.004928131868132</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -917,16 +917,16 @@
         <v>1.209420567118876</v>
       </c>
       <c r="G9">
-        <v>23840899072</v>
+        <v>23.89466839118413</v>
       </c>
       <c r="H9">
-        <v>6.456769655572163</v>
+        <v>6.434546518787453</v>
       </c>
       <c r="I9">
-        <v>0.9999999941596506</v>
+        <v>0.9977810209300527</v>
       </c>
       <c r="J9">
-        <v>0.7432060119450575</v>
+        <v>0.1088037354803304</v>
       </c>
       <c r="K9">
         <v>9000</v>
@@ -935,7 +935,7 @@
         <v>1109</v>
       </c>
       <c r="M9">
-        <v>1.392677975540339</v>
+        <v>1.193219566023324</v>
       </c>
       <c r="N9">
         <v>900</v>
